--- a/RisultatiPowDroid/Risultati App ottimizzata parz2.xlsx
+++ b/RisultatiPowDroid/Risultati App ottimizzata parz2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biagi\Desktop\Progetto-Operating_systems_for_mobile_cloud_and_IoT\RisultatiPowDroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6AC024-2BC7-4841-976B-25FA075B4FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D221F8B-3E65-4C12-B18C-5B0507D73CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>Scenario 5</t>
   </si>
@@ -97,18 +97,27 @@
   <si>
     <t>Scenario5</t>
   </si>
+  <si>
+    <t>/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -266,27 +275,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -295,28 +334,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -334,6 +352,2834 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenario3 ParzOtt2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37.767000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.665999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>67.440944000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.589305999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.998581000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.041052999999977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.256816999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B91-4B43-8FD6-276EB770B80D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="362811744"/>
+        <c:axId val="357398832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="362811744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357398832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="357398832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="362811744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenario5 ParzOtt2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>104.175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101.367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101.291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.98975099999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.67097200000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.50860000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.62703700000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.587816999999944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B31E-4D31-BFC5-AB21768F9002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="529827568"/>
+        <c:axId val="523846896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="529827568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523846896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="523846896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="529827568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Scenario2 ParzOtt2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$M$5:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>136.31299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138.26499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$N$5:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>168.85493799999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.05406899999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.29058100000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>195.31658099999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149.24785600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2197-40B6-ABD5-C37FF7194348}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="522433840"/>
+        <c:axId val="386453584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="522433840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386453584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="386453584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522433840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>331694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>164390</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>204283</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B29CF65-48D5-06DF-0364-0649676BC9A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>543485</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52331</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>237901</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01AD1E78-8D01-E357-07D9-B49545921AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72837</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>264459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209213</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137048</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EA4D7B9-3420-21E6-6154-2989D9312CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,7 +3448,7 @@
   <dimension ref="A2:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" activeCellId="7" sqref="C5:D9 C12:E14 H5:I9 H12:J14 M12:O14 M5:N9 R5:S7 R10:T12"/>
+      <selection activeCell="L4" sqref="L4:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -638,171 +3484,249 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="4"/>
       <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="4"/>
       <c r="Q4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="T4" s="4"/>
     </row>
     <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="15">
+        <v>104.175</v>
+      </c>
+      <c r="D5" s="15">
+        <v>100.98975099999996</v>
+      </c>
       <c r="E5" s="5"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="H5" s="15">
+        <v>37.767000000000003</v>
+      </c>
+      <c r="I5" s="15">
+        <v>67.440944000000002</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="M5" s="20">
+        <v>136.31299999999999</v>
+      </c>
+      <c r="N5" s="20">
+        <v>168.85493799999995</v>
+      </c>
       <c r="O5" s="5"/>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="R5" s="6">
+        <f>M12</f>
+        <v>135.4888</v>
+      </c>
+      <c r="S5" s="6">
+        <f>N12</f>
+        <v>162.152805</v>
+      </c>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="15">
+        <v>101.367</v>
+      </c>
+      <c r="D6" s="15">
+        <v>131.67097200000003</v>
+      </c>
       <c r="E6" s="5"/>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="H6" s="15">
+        <v>53.512</v>
+      </c>
+      <c r="I6" s="15">
+        <v>48.589305999999993</v>
+      </c>
       <c r="J6" s="5"/>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+      <c r="M6" s="20">
+        <v>127.736</v>
+      </c>
+      <c r="N6" s="20">
+        <v>150.05406899999997</v>
+      </c>
       <c r="O6" s="5"/>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+      <c r="R6" s="6">
+        <f>H12</f>
+        <v>50.514400000000002</v>
+      </c>
+      <c r="S6" s="6">
+        <f>I12</f>
+        <v>61.665340200000003</v>
+      </c>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="15">
+        <v>101.303</v>
+      </c>
+      <c r="D7" s="15">
+        <v>149.50860000000003</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="H7" s="15">
+        <v>53.332000000000001</v>
+      </c>
+      <c r="I7" s="15">
+        <v>47.998581000000009</v>
+      </c>
       <c r="J7" s="5"/>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="M7" s="20">
+        <v>138.88</v>
+      </c>
+      <c r="N7" s="20">
+        <v>147.29058100000006</v>
+      </c>
       <c r="O7" s="5"/>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="R7" s="6">
+        <f>C12</f>
+        <v>102.39280000000001</v>
+      </c>
+      <c r="S7" s="6">
+        <f>D12</f>
+        <v>116.07683540000001</v>
+      </c>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="15">
+        <v>101.291</v>
+      </c>
+      <c r="D8" s="15">
+        <v>100.62703700000003</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="15">
+        <v>53.295000000000002</v>
+      </c>
+      <c r="I8" s="15">
+        <v>96.041052999999977</v>
+      </c>
       <c r="J8" s="5"/>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="M8" s="20">
+        <v>138.26499999999999</v>
+      </c>
+      <c r="N8" s="20">
+        <v>195.31658099999993</v>
+      </c>
       <c r="O8" s="5"/>
       <c r="Q8" s="7"/>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="15">
+        <v>103.828</v>
+      </c>
+      <c r="D9" s="15">
+        <v>97.587816999999944</v>
+      </c>
       <c r="E9" s="5"/>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="15">
+        <v>54.665999999999997</v>
+      </c>
+      <c r="I9" s="15">
+        <v>48.256816999999998</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
+      <c r="M9" s="20">
+        <v>136.25</v>
+      </c>
+      <c r="N9" s="20">
+        <v>149.24785600000001</v>
+      </c>
       <c r="O9" s="5"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="10" t="s">
+      <c r="S9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -813,119 +3737,224 @@
       <c r="J10" s="5"/>
       <c r="L10" s="7"/>
       <c r="O10" s="5"/>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="5"/>
+      <c r="R10" s="16">
+        <f>AVERAGE(R3:R7)</f>
+        <v>96.132000000000005</v>
+      </c>
+      <c r="S10" s="16">
+        <f>AVERAGE(S3:S7)</f>
+        <v>113.29832686666667</v>
+      </c>
+      <c r="T10" s="17">
+        <f>S10/R10</f>
+        <v>1.178570370601534</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="N11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="Q11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="5"/>
+      <c r="R11" s="16">
+        <f>MEDIAN(R3:R7)</f>
+        <v>102.39280000000001</v>
+      </c>
+      <c r="S11" s="16">
+        <f>MEDIAN(S3:S7)</f>
+        <v>116.07683540000001</v>
+      </c>
+      <c r="T11" s="17">
+        <f>S11/R11</f>
+        <v>1.1336425549452696</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="12" t="s">
+      <c r="C12" s="16">
+        <f>AVERAGE(C5:C9)</f>
+        <v>102.39280000000001</v>
+      </c>
+      <c r="D12" s="16">
+        <f>AVERAGE(D5:D9)</f>
+        <v>116.07683540000001</v>
+      </c>
+      <c r="E12" s="17">
+        <f>D12/C12</f>
+        <v>1.1336425549452696</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
-      <c r="L12" s="12" t="s">
+      <c r="H12" s="16">
+        <f>AVERAGE(H5:H9)</f>
+        <v>50.514400000000002</v>
+      </c>
+      <c r="I12" s="16">
+        <f>AVERAGE(I5:I9)</f>
+        <v>61.665340200000003</v>
+      </c>
+      <c r="J12" s="17">
+        <f>I12/H12</f>
+        <v>1.2207477511363096</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="5"/>
-      <c r="Q12" s="13" t="s">
+      <c r="M12" s="16">
+        <f>AVERAGE(M5:M9)</f>
+        <v>135.4888</v>
+      </c>
+      <c r="N12" s="16">
+        <f>AVERAGE(N5:N9)</f>
+        <v>162.152805</v>
+      </c>
+      <c r="O12" s="17">
+        <f>N12/M12</f>
+        <v>1.1967985914702912</v>
+      </c>
+      <c r="Q12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="9"/>
+      <c r="R12" s="18">
+        <f>_xlfn.STDEV.P(R3:R7)</f>
+        <v>34.971992377901493</v>
+      </c>
+      <c r="S12" s="18">
+        <f>_xlfn.STDEV.P(S3:S7)</f>
+        <v>41.070855260433063</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="12" t="s">
+      <c r="C13" s="16">
+        <f>MEDIAN(C5:C9)</f>
+        <v>101.367</v>
+      </c>
+      <c r="D13" s="16">
+        <f>MEDIAN(D5:D9)</f>
+        <v>100.98975099999996</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D13/C13</f>
+        <v>0.99627838448410189</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="L13" s="12" t="s">
+      <c r="H13" s="16">
+        <f>MEDIAN(H5:H9)</f>
+        <v>53.332000000000001</v>
+      </c>
+      <c r="I13" s="16">
+        <f>MEDIAN(I5:I9)</f>
+        <v>48.589305999999993</v>
+      </c>
+      <c r="J13" s="17">
+        <f>I13/H13</f>
+        <v>0.91107226430660748</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="5"/>
+      <c r="M13" s="16">
+        <f>MEDIAN(M5:M9)</f>
+        <v>136.31299999999999</v>
+      </c>
+      <c r="N13" s="16">
+        <f>MEDIAN(N5:N9)</f>
+        <v>150.05406899999997</v>
+      </c>
+      <c r="O13" s="17">
+        <f>N13/M13</f>
+        <v>1.1008052716908878</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="13" t="s">
+      <c r="C14" s="18">
+        <f>_xlfn.STDEV.P(C5:C9)</f>
+        <v>1.3183268790402478</v>
+      </c>
+      <c r="D14" s="18">
+        <f>_xlfn.STDEV.P(D5:D9)</f>
+        <v>20.827962782078174</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="L14" s="13" t="s">
+      <c r="H14" s="18">
+        <f>_xlfn.STDEV.P(H5:H9)</f>
+        <v>6.3935624060456338</v>
+      </c>
+      <c r="I14" s="18">
+        <f>_xlfn.STDEV.P(I5:I9)</f>
+        <v>18.722172425217888</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="M14" s="18">
+        <f>_xlfn.STDEV.P(M5:M9)</f>
+        <v>4.014278585250401</v>
+      </c>
+      <c r="N14" s="18">
+        <f>_xlfn.STDEV.P(N5:N9)</f>
+        <v>18.322431329080395</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>